--- a/biology/Histoire de la zoologie et de la botanique/George_Newbold_Lawrence/George_Newbold_Lawrence.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Newbold_Lawrence/George_Newbold_Lawrence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Newbold Lawrence, né à New York le 20 octobre 1806 et mort à New York le 17 janvier 1895, est un homme d'affaires et ornithologue amateur américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille est originaire du Hertfordshire, en Grande-Bretagne, et émigre aux États-Unis en 1635. Le jeune Lawrence grandit pas très loin du domicile de John James Audubon (1785-1851) et fréquente ses enfants. Son père dirige une prospère entreprise pharmaceutique que son fils reprendra. Lawrence abandonne les affaires en 1862 pour se consacrer entièrement à l’ornithologie. Il dirige plusieurs expéditions pour étudier les oiseaux du Pacifique avec Spencer Fullerton Baird et John Cassin (1813-1869), avec qui il a coécrit Birds of North America en 1858.
 Il fait don de sa collection de 8 000 dépouilles d'oiseaux à l'American Museum of Natural History. Lawrence s’intéresse principalement aux oiseaux tropicaux.
@@ -543,7 +557,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bec-en-arc de Lawrence (Oncostoma olivaceum), aussi appelé Tyranneau de Lawrence ;
 Chardonneret gris (Carduelis lawrencei), par John Cassin.</t>
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Daniel Giraud Elliot (1896). In Memoriam : George Newbold Lawrence, Auk (The), 13, 1 : 1-10.  (ISSN 0004-8038)
 Edward S. Gruson (1972). Words for Birds. A Lexicon of North American Birds with Biographical Notes, Quadrangle Books (New York) : xiv + 305 p.</t>
